--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_10.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>332150.7007463797</v>
+        <v>319864.3976981917</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2758956.857834493</v>
+        <v>2995243.613506389</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20124085.5950219</v>
+        <v>20355670.24425594</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4918441.330020065</v>
+        <v>4812397.712269949</v>
       </c>
     </row>
     <row r="11">
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -829,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2968606583479769</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6263639150735023</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -984,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>21.81976115797297</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1093,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>19.84491174912431</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1139,22 +1139,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6263639150735093</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
+        <v>12.57565326968602</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2968606583479769</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25.62029119463083</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>0.2968606583479769</v>
       </c>
     </row>
     <row r="11">
@@ -1379,49 +1379,49 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
+      <c r="T11" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1458,58 +1458,58 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="T12" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="U12" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
         <v>22.56635248423083</v>
-      </c>
-      <c r="G12" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="H12" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="I12" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1777,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.2968606583479769</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,19 +1804,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>19.8449117491243</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1886,22 +1886,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S17" t="n">
-        <v>34.86547882798917</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T17" t="n">
-        <v>39.58387696184059</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="U17" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.11888750173132</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S18" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T18" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U18" t="n">
-        <v>39.58387696184059</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2041,34 +2041,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>19.72793538656374</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2175,13 +2175,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>99.22041616487689</v>
+        <v>170.2595587431199</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,28 +2318,28 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>220.8837963815378</v>
+      </c>
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>11.19305615617957</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>4.122280040031055</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="25">
@@ -2521,10 +2521,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S25" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2597,31 +2597,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>6.149489039833804</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2773,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,17 +2789,17 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>49.14146140445636</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>52.26043626821096</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2934,7 +2934,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3004,19 +3004,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,22 +3029,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="D32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>212.2853856434421</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>29.85921600351671</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3071,10 +3071,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3108,19 +3108,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>54.27083324537806</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,25 +3153,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>188.0644551828377</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3235,16 +3235,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3308,31 +3308,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>186.1022620414493</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3354,19 +3354,19 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>65.19308931625963</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,22 +3393,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>99.44214395123377</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>31.42349649226721</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,16 +3636,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>104.7904679947746</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="C41" t="n">
-        <v>227.0507031104493</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>187.9840913941556</v>
       </c>
       <c r="E41" t="n">
-        <v>199.9862592996837</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>227.0507031104493</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3803,10 +3803,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="Y41" t="n">
-        <v>227.0507031104493</v>
+        <v>213.4242636173429</v>
       </c>
     </row>
     <row r="42">
@@ -3819,28 +3819,28 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>91.2568246402279</v>
+        <v>55.93187208342085</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4031,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>12.575653269686</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4110,16 +4110,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>22.56635248423081</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4174,16 +4174,16 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.84491174912431</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>102.1813055276668</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>76.30222351288816</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>50.42314149810954</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>24.54405948333093</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>78.14188814362404</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.11961254265382</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>14.11961254265382</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>14.11961254265382</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>14.11961254265382</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>14.11961254265382</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>14.11961254265382</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>14.11961254265382</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>14.11961254265382</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>92.38954941029624</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>66.51046739551762</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>14.11961254265382</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>14.11961254265382</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>14.11961254265382</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>14.11961254265382</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.11961254265382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>80.44100199269204</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>54.56191997791342</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>28.6828379631348</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>78.14188814362404</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>99.73223474306219</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>73.85315272828358</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>47.97407071350496</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>22.09498869872634</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66.51046739551762</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="C8" t="n">
-        <v>66.51046739551762</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="D8" t="n">
-        <v>66.51046739551762</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="E8" t="n">
-        <v>66.51046739551762</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F8" t="n">
-        <v>66.51046739551762</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G8" t="n">
-        <v>65.87777657221105</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H8" t="n">
-        <v>39.99869455743244</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I8" t="n">
-        <v>14.11961254265382</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J8" t="n">
         <v>2.049623295570466</v>
       </c>
       <c r="K8" t="n">
+        <v>2.049623295570466</v>
+      </c>
+      <c r="L8" t="n">
         <v>26.38889993046976</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>51.75298821315428</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
+        <v>51.75298821315428</v>
+      </c>
+      <c r="O8" t="n">
         <v>77.1170764958388</v>
-      </c>
-      <c r="N8" t="n">
-        <v>102.4811647785233</v>
-      </c>
-      <c r="O8" t="n">
-        <v>102.4811647785233</v>
       </c>
       <c r="P8" t="n">
         <v>102.4811647785233</v>
@@ -4826,28 +4826,28 @@
         <v>92.38954941029624</v>
       </c>
       <c r="R8" t="n">
-        <v>66.51046739551762</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="S8" t="n">
-        <v>66.51046739551762</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="T8" t="n">
-        <v>66.51046739551762</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="U8" t="n">
-        <v>66.51046739551762</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="V8" t="n">
-        <v>66.51046739551762</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="W8" t="n">
-        <v>66.51046739551762</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="X8" t="n">
-        <v>66.51046739551762</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="Y8" t="n">
-        <v>66.51046739551762</v>
+        <v>53.80778732512771</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
-        <v>2.049623295570466</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L9" t="n">
-        <v>2.049623295570466</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M9" t="n">
-        <v>27.41371157825499</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N9" t="n">
-        <v>51.75298821315428</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O9" t="n">
-        <v>51.75298821315428</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P9" t="n">
         <v>77.1170764958388</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.4811647785233</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="C10" t="n">
-        <v>102.4811647785233</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="D10" t="n">
-        <v>102.4811647785233</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="E10" t="n">
-        <v>102.4811647785233</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="F10" t="n">
-        <v>102.4811647785233</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="G10" t="n">
         <v>102.1813055276668</v>
@@ -4972,7 +4972,7 @@
         <v>52.77779986093951</v>
       </c>
       <c r="N10" t="n">
-        <v>78.14188814362404</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O10" t="n">
         <v>102.4811647785233</v>
@@ -5005,7 +5005,7 @@
         <v>102.4811647785233</v>
       </c>
       <c r="Y10" t="n">
-        <v>102.4811647785233</v>
+        <v>102.1813055276668</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C11" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D11" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E11" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F11" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G11" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H11" t="n">
         <v>2.049623295570466</v>
@@ -5042,16 +5042,16 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K11" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L11" t="n">
-        <v>52.77779986093951</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M11" t="n">
-        <v>52.77779986093951</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N11" t="n">
-        <v>52.77779986093951</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O11" t="n">
         <v>77.1170764958388</v>
@@ -5063,28 +5063,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R11" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S11" t="n">
         <v>76.6020827637447</v>
       </c>
       <c r="T11" t="n">
-        <v>76.6020827637447</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U11" t="n">
-        <v>76.6020827637447</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V11" t="n">
-        <v>76.6020827637447</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W11" t="n">
-        <v>50.72300074896609</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="X11" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y11" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C12" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D12" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E12" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F12" t="n">
-        <v>79.68686933990632</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G12" t="n">
-        <v>53.80778732512771</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H12" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I12" t="n">
         <v>2.049623295570466</v>
@@ -5121,16 +5121,16 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K12" t="n">
-        <v>2.049623295570466</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L12" t="n">
-        <v>27.41371157825499</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="M12" t="n">
-        <v>52.77779986093951</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N12" t="n">
-        <v>78.14188814362403</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O12" t="n">
         <v>102.4811647785233</v>
@@ -5145,25 +5145,25 @@
         <v>102.4811647785233</v>
       </c>
       <c r="S12" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T12" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U12" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="V12" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="W12" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X12" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y12" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="13">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C14" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D14" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E14" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F14" t="n">
-        <v>2.049623295570466</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="G14" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="H14" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="I14" t="n">
         <v>2.049623295570466</v>
@@ -5279,19 +5279,19 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K14" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L14" t="n">
-        <v>52.77779986093951</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="M14" t="n">
         <v>77.1170764958388</v>
       </c>
       <c r="N14" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O14" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P14" t="n">
         <v>102.4811647785233</v>
@@ -5300,28 +5300,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R14" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S14" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T14" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U14" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V14" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W14" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X14" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K15" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L15" t="n">
-        <v>27.41371157825499</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="M15" t="n">
-        <v>52.77779986093951</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N15" t="n">
-        <v>52.77779986093951</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O15" t="n">
-        <v>77.1170764958388</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P15" t="n">
         <v>77.1170764958388</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="G16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="H16" t="n">
-        <v>2.049623295570466</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="I16" t="n">
-        <v>2.049623295570466</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="J16" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K16" t="n">
         <v>2.049623295570466</v>
@@ -5446,40 +5446,40 @@
         <v>52.77779986093951</v>
       </c>
       <c r="N16" t="n">
-        <v>78.14188814362403</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O16" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="P16" t="n">
-        <v>99.73223474306218</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.85315272828356</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R16" t="n">
-        <v>47.97407071350494</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S16" t="n">
-        <v>22.09498869872633</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C17" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D17" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E17" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F17" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G17" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H17" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I17" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J17" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K17" t="n">
-        <v>42.35474834916943</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L17" t="n">
-        <v>81.54278654139161</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M17" t="n">
-        <v>119.1474696551402</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N17" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O17" t="n">
-        <v>119.1474696551402</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P17" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q17" t="n">
-        <v>158.3355078473624</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R17" t="n">
-        <v>158.3355078473624</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S17" t="n">
-        <v>123.1178524655551</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="T17" t="n">
-        <v>83.13413836268582</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="U17" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V17" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W17" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X17" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.920842809732961</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C18" t="n">
-        <v>3.920842809732961</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D18" t="n">
-        <v>3.920842809732961</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E18" t="n">
-        <v>3.920842809732961</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F18" t="n">
-        <v>3.920842809732961</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G18" t="n">
-        <v>3.920842809732961</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H18" t="n">
-        <v>3.920842809732961</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I18" t="n">
-        <v>3.920842809732961</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J18" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K18" t="n">
-        <v>3.166710156947247</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L18" t="n">
-        <v>3.166710156947247</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M18" t="n">
-        <v>40.77139327069581</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N18" t="n">
-        <v>79.95943146291799</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O18" t="n">
-        <v>79.95943146291799</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P18" t="n">
-        <v>119.1474696551402</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R18" t="n">
-        <v>123.8719851183408</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S18" t="n">
-        <v>83.88827101547153</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T18" t="n">
-        <v>43.90455691260225</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="U18" t="n">
-        <v>3.920842809732961</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V18" t="n">
-        <v>3.920842809732961</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W18" t="n">
-        <v>3.920842809732961</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X18" t="n">
-        <v>3.920842809732961</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.920842809732961</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L19" t="n">
-        <v>30.48083516466022</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M19" t="n">
-        <v>69.6688733568824</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N19" t="n">
-        <v>108.8569115491046</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O19" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P19" t="n">
-        <v>130.4472581485427</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.4472581485427</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="R19" t="n">
-        <v>130.4472581485427</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S19" t="n">
-        <v>123.1178524655551</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T19" t="n">
-        <v>83.13413836268582</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U19" t="n">
-        <v>43.15042425981653</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V19" t="n">
-        <v>43.15042425981653</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W19" t="n">
-        <v>3.166710156947247</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X19" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C20" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D20" t="n">
-        <v>223.6192102101089</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W20" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X20" t="n">
-        <v>710.516763498309</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y20" t="n">
-        <v>467.067986854209</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>282.3388210166704</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>282.3388210166704</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,16 +5835,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>690.4171683705204</v>
+        <v>517.4909292484131</v>
       </c>
       <c r="U21" t="n">
-        <v>462.1935501069094</v>
+        <v>517.4909292484131</v>
       </c>
       <c r="V21" t="n">
-        <v>227.0414418751666</v>
+        <v>282.3388210166704</v>
       </c>
       <c r="W21" t="n">
-        <v>227.0414418751666</v>
+        <v>282.3388210166704</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0414418751666</v>
+        <v>282.3388210166704</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>282.3388210166704</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>274.0360370837871</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C23" t="n">
-        <v>30.58726043968704</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D23" t="n">
-        <v>30.58726043968704</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E23" t="n">
-        <v>30.58726043968704</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F23" t="n">
-        <v>30.58726043968704</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G23" t="n">
-        <v>30.58726043968704</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H23" t="n">
-        <v>30.58726043968704</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6014,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>274.0360370837871</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W23" t="n">
-        <v>274.0360370837871</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X23" t="n">
-        <v>274.0360370837871</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y23" t="n">
-        <v>274.0360370837871</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>23.44506234256733</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>23.44506234256733</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>23.44506234256733</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>23.44506234256733</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>23.44506234256733</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6069,16 +6069,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>634.6640077999109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>399.5118995681682</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>399.5118995681682</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>191.6603993626354</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>191.6603993626354</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6169,7 +6169,7 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R25" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
         <v>19.28114311021272</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>333.21913046151</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>259.0600686093459</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V27" t="n">
-        <v>23.90796037760316</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>339.4307355522512</v>
       </c>
     </row>
     <row r="28">
@@ -6421,10 +6421,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
         <v>19.28114311021272</v>
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>718.7806050553886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>243.3720121938209</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="C30" t="n">
-        <v>68.91898291269391</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="D30" t="n">
-        <v>68.91898291269391</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="E30" t="n">
-        <v>68.91898291269391</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F30" t="n">
-        <v>68.91898291269391</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6546,13 +6546,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>613.2059550252818</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>911.2688360477969</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>911.2688360477969</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>911.2688360477969</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>683.045217784186</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>683.045217784186</v>
       </c>
       <c r="W30" t="n">
-        <v>619.4388494194218</v>
+        <v>439.5964411400859</v>
       </c>
       <c r="X30" t="n">
-        <v>411.587349213889</v>
+        <v>439.5964411400859</v>
       </c>
       <c r="Y30" t="n">
-        <v>411.587349213889</v>
+        <v>439.5964411400859</v>
       </c>
     </row>
     <row r="31">
@@ -6652,16 +6652,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
         <v>829.5248650203655</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>964.0571555106362</v>
+        <v>700.1014279485831</v>
       </c>
       <c r="C32" t="n">
-        <v>720.6083788665362</v>
+        <v>482.5317333192617</v>
       </c>
       <c r="D32" t="n">
-        <v>477.1596022224361</v>
+        <v>482.5317333192617</v>
       </c>
       <c r="E32" t="n">
-        <v>233.7108255783361</v>
+        <v>482.5317333192617</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>264.9620386899402</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>47.39234406061874</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K32" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L32" t="n">
-        <v>302.3720006057937</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M32" t="n">
-        <v>519.3476278686978</v>
+        <v>506.5265183822256</v>
       </c>
       <c r="N32" t="n">
-        <v>725.2021500759372</v>
+        <v>712.3810405894649</v>
       </c>
       <c r="O32" t="n">
-        <v>874.3971002185853</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>700.1014279485831</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>700.1014279485831</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>700.1014279485831</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>700.1014279485831</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>700.1014279485831</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>700.1014279485831</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>700.1014279485831</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>700.1014279485831</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>499.5061853699102</v>
+        <v>218.5851012679371</v>
       </c>
       <c r="C33" t="n">
-        <v>325.0531560887832</v>
+        <v>218.5851012679371</v>
       </c>
       <c r="D33" t="n">
-        <v>325.0531560887832</v>
+        <v>218.5851012679371</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>218.5851012679371</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>72.05054329482212</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L33" t="n">
-        <v>234.810827406191</v>
+        <v>355.8291375786776</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>396.2978968992348</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>609.5379546054328</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>609.5379546054328</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T33" t="n">
-        <v>499.5061853699102</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U33" t="n">
-        <v>499.5061853699102</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="V33" t="n">
-        <v>499.5061853699102</v>
+        <v>426.43660147347</v>
       </c>
       <c r="W33" t="n">
-        <v>499.5061853699102</v>
+        <v>426.43660147347</v>
       </c>
       <c r="X33" t="n">
-        <v>499.5061853699102</v>
+        <v>218.5851012679371</v>
       </c>
       <c r="Y33" t="n">
-        <v>499.5061853699102</v>
+        <v>218.5851012679371</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>44.54564482235524</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>83.73368301457742</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>127.4245336700137</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>151.763810304913</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>151.763810304913</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>151.763810304913</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K35" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L35" t="n">
-        <v>302.3720006057937</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M35" t="n">
-        <v>519.3476278686978</v>
+        <v>513.5624350164212</v>
       </c>
       <c r="N35" t="n">
-        <v>725.2021500759372</v>
+        <v>719.4169572236606</v>
       </c>
       <c r="O35" t="n">
-        <v>874.3971002185853</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>640.352991943436</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7108255783361</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>380.6017161145382</v>
+        <v>341.3730914098062</v>
       </c>
       <c r="C36" t="n">
-        <v>380.6017161145382</v>
+        <v>166.9200621286792</v>
       </c>
       <c r="D36" t="n">
-        <v>231.667306453287</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="E36" t="n">
-        <v>231.667306453287</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="F36" t="n">
-        <v>85.13274848017195</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="G36" t="n">
-        <v>85.13274848017195</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="J36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L36" t="n">
-        <v>65.60123993063803</v>
+        <v>230.4715775208402</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>252.4523977063661</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>465.6924554125641</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>678.932513118762</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>659.389396090879</v>
       </c>
       <c r="U36" t="n">
-        <v>588.4532163200711</v>
+        <v>441.8197014615575</v>
       </c>
       <c r="V36" t="n">
-        <v>588.4532163200711</v>
+        <v>341.3730914098062</v>
       </c>
       <c r="W36" t="n">
-        <v>588.4532163200711</v>
+        <v>341.3730914098062</v>
       </c>
       <c r="X36" t="n">
-        <v>380.6017161145382</v>
+        <v>341.3730914098062</v>
       </c>
       <c r="Y36" t="n">
-        <v>380.6017161145382</v>
+        <v>341.3730914098062</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K38" t="n">
-        <v>122.2961490211351</v>
+        <v>23.55055379931807</v>
       </c>
       <c r="L38" t="n">
-        <v>302.3720006057937</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M38" t="n">
-        <v>519.3476278686978</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N38" t="n">
-        <v>725.2021500759372</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O38" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P38" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="U38" t="n">
-        <v>720.6083788665362</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="W38" t="n">
-        <v>477.1596022224361</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="X38" t="n">
-        <v>233.7108255783361</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>234.8012144439637</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>501.9060370580465</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C39" t="n">
-        <v>327.4530077769195</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>355.8291375786776</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>569.0691952848756</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>678.932513118762</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>678.932513118762</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R39" t="n">
-        <v>932.3162499628916</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="S39" t="n">
-        <v>932.3162499628916</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="T39" t="n">
-        <v>730.1296553216575</v>
+        <v>558.2198666437646</v>
       </c>
       <c r="U39" t="n">
-        <v>501.9060370580465</v>
+        <v>340.6501720144431</v>
       </c>
       <c r="V39" t="n">
-        <v>501.9060370580465</v>
+        <v>123.0804773851217</v>
       </c>
       <c r="W39" t="n">
-        <v>501.9060370580465</v>
+        <v>123.0804773851217</v>
       </c>
       <c r="X39" t="n">
-        <v>501.9060370580465</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y39" t="n">
-        <v>501.9060370580465</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R40" t="n">
-        <v>66.78106667958005</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S40" t="n">
-        <v>66.78106667958005</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>449.5145233297784</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="C41" t="n">
-        <v>220.170378773769</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="D41" t="n">
-        <v>220.170378773769</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E41" t="n">
-        <v>18.16405624883594</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F41" t="n">
-        <v>18.16405624883594</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G41" t="n">
-        <v>18.16405624883594</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H41" t="n">
-        <v>18.16405624883594</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I41" t="n">
-        <v>18.16405624883594</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J41" t="n">
-        <v>18.16405624883594</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="K41" t="n">
-        <v>121.1790621597583</v>
+        <v>107.2817095536563</v>
       </c>
       <c r="L41" t="n">
-        <v>301.2549137444169</v>
+        <v>287.3575611383148</v>
       </c>
       <c r="M41" t="n">
-        <v>518.230541007321</v>
+        <v>498.6475821194843</v>
       </c>
       <c r="N41" t="n">
-        <v>724.0850632145603</v>
+        <v>704.5021043267236</v>
       </c>
       <c r="O41" t="n">
-        <v>873.2800133572083</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="P41" t="n">
-        <v>908.2028124417972</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="Q41" t="n">
-        <v>908.2028124417972</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="R41" t="n">
-        <v>908.2028124417972</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="S41" t="n">
-        <v>908.2028124417972</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="T41" t="n">
-        <v>908.2028124417972</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="U41" t="n">
-        <v>678.8586678857878</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="V41" t="n">
-        <v>678.8586678857878</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="W41" t="n">
-        <v>678.8586678857878</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="X41" t="n">
-        <v>678.8586678857878</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="Y41" t="n">
-        <v>449.5145233297784</v>
+        <v>422.536925949487</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>908.2028124417972</v>
+        <v>222.5051912389426</v>
       </c>
       <c r="C42" t="n">
-        <v>816.0242016940922</v>
+        <v>166.0083507506387</v>
       </c>
       <c r="D42" t="n">
-        <v>667.0897920328409</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E42" t="n">
-        <v>507.8523370273854</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F42" t="n">
-        <v>361.3177790542703</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G42" t="n">
-        <v>222.5869536368859</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H42" t="n">
-        <v>109.2178180444652</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I42" t="n">
-        <v>18.91818890162166</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J42" t="n">
-        <v>18.16405624883594</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="K42" t="n">
-        <v>143.5216163066733</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="L42" t="n">
-        <v>368.3018123860181</v>
+        <v>228.3639620705569</v>
       </c>
       <c r="M42" t="n">
-        <v>593.0820084653629</v>
+        <v>439.6539830517264</v>
       </c>
       <c r="N42" t="n">
-        <v>817.8622045447078</v>
+        <v>439.6539830517264</v>
       </c>
       <c r="O42" t="n">
-        <v>838.8082539284678</v>
+        <v>601.6590183426915</v>
       </c>
       <c r="P42" t="n">
-        <v>838.8082539284678</v>
+        <v>784.3024959560423</v>
       </c>
       <c r="Q42" t="n">
-        <v>908.2028124417972</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="R42" t="n">
-        <v>908.2028124417972</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="S42" t="n">
-        <v>908.2028124417972</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="T42" t="n">
-        <v>908.2028124417972</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="U42" t="n">
-        <v>908.2028124417972</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="V42" t="n">
-        <v>908.2028124417972</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="W42" t="n">
-        <v>908.2028124417972</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2028124417972</v>
+        <v>430.2654900038965</v>
       </c>
       <c r="Y42" t="n">
-        <v>908.2028124417972</v>
+        <v>222.5051912389426</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.16405624883594</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="C43" t="n">
-        <v>18.16405624883594</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="D43" t="n">
-        <v>18.16405624883594</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E43" t="n">
-        <v>18.16405624883594</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F43" t="n">
-        <v>18.16405624883594</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G43" t="n">
-        <v>18.16405624883594</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H43" t="n">
-        <v>18.16405624883594</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I43" t="n">
-        <v>18.16405624883594</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J43" t="n">
-        <v>18.16405624883594</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="K43" t="n">
-        <v>18.16405624883594</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="L43" t="n">
-        <v>45.47818125654892</v>
+        <v>44.38806609710041</v>
       </c>
       <c r="M43" t="n">
-        <v>84.6662194487711</v>
+        <v>83.57610428932259</v>
       </c>
       <c r="N43" t="n">
-        <v>128.3570701042074</v>
+        <v>127.2669549447589</v>
       </c>
       <c r="O43" t="n">
-        <v>152.6963467391067</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="P43" t="n">
-        <v>152.6963467391067</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.6963467391067</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="R43" t="n">
-        <v>152.6963467391067</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="S43" t="n">
-        <v>18.16405624883594</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="T43" t="n">
-        <v>18.16405624883594</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="U43" t="n">
-        <v>18.16405624883594</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="V43" t="n">
-        <v>18.16405624883594</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="W43" t="n">
-        <v>18.16405624883594</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="X43" t="n">
-        <v>18.16405624883594</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.16405624883594</v>
+        <v>17.07394108938743</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>27.41371157825498</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>51.75298821315425</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>51.75298821315425</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>51.75298821315425</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>77.11707649583877</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>92.38954941029621</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>92.38954941029621</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>92.38954941029621</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>92.38954941029621</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>79.68686933990631</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>53.80778732512769</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>53.80778732512769</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>27.41371157825498</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>52.7777998609395</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>78.14188814362402</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>79.68686933990631</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>53.80778732512769</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.049623295570463</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>2.049623295570463</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>2.049623295570463</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2.049623295570463</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.049623295570463</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.049623295570463</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.049623295570463</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2.049623295570463</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.049623295570463</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>2.049623295570463</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>27.41371157825498</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>52.7777998609395</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>78.14188814362402</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>99.73223474306216</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>79.68686933990629</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.80778732512768</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>27.92870531034907</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>27.92870531034907</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>27.92870531034907</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>27.92870531034907</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>27.92870531034907</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>27.92870531034907</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.049623295570463</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7985,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>254.9313611413124</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,19 +8058,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>167.1813723584841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8140,16 +8140,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8216,13 +8216,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>254.9313611413124</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
         <v>229.4130635965909</v>
@@ -8231,7 +8231,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8301,19 +8301,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>166.719161836058</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>156.9620032779641</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,16 +8377,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M7" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N7" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O7" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>244.6749789590202</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>261.3867061646181</v>
+        <v>260.3515428840269</v>
       </c>
       <c r="M8" t="n">
         <v>255.9665244219036</v>
       </c>
       <c r="N8" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>162.4265668883987</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
@@ -8541,13 +8541,13 @@
         <v>167.7543251166491</v>
       </c>
       <c r="N9" t="n">
-        <v>155.926839997373</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>165.6020652806523</v>
@@ -8690,19 +8690,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>245.7101422396114</v>
+        <v>244.6749789590202</v>
       </c>
       <c r="L11" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O11" t="n">
-        <v>254.6833393357264</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P11" t="n">
         <v>256.8532869499004</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>162.4265668883987</v>
       </c>
       <c r="L12" t="n">
         <v>164.174670974505</v>
@@ -8781,7 +8781,7 @@
         <v>156.9620032779641</v>
       </c>
       <c r="O12" t="n">
-        <v>167.1813723584841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>245.7101422396114</v>
+        <v>244.6749789590202</v>
       </c>
       <c r="L14" t="n">
         <v>261.3867061646181</v>
       </c>
       <c r="M14" t="n">
-        <v>254.9313611413124</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O14" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,22 +9006,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>163.4617301689898</v>
+        <v>162.4265668883987</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M15" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>167.1813723584841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q15" t="n">
         <v>165.6020652806523</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>259.6737280068211</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L17" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>268.3307616249986</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P17" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M18" t="n">
-        <v>180.1185623197441</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N18" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>173.5582843761708</v>
+        <v>160.4496841792801</v>
       </c>
       <c r="Q18" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9328,10 +9328,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M19" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N19" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O19" t="n">
         <v>163.0416663658825</v>
@@ -9483,19 +9483,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9717,19 +9717,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>369.031319612638</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10194,16 +10194,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>312.5030352242461</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10349,13 +10349,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>438.6332444111135</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10364,7 +10364,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10431,16 +10431,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>229.6373335557741</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>183.0115685892478</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10592,16 +10592,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>373.6931947635578</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10668,16 +10668,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>185.3423563661624</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>164.3368825942667</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10823,13 +10823,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>226.4727136557642</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M39" t="n">
-        <v>359.8407857361378</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>242.3147604003903</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,13 +11060,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>311.2088090896966</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>443.7704968446156</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>266.5085503861674</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,22 +11139,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>365.6050828903235</v>
+        <v>351.9786433972171</v>
       </c>
       <c r="M42" t="n">
-        <v>369.1847370324676</v>
+        <v>355.5582975393612</v>
       </c>
       <c r="N42" t="n">
-        <v>358.3924151937826</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>163.7538700846061</v>
+        <v>306.2376942332981</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,10 +11297,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>260.3515428840269</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
         <v>230.3462332272727</v>
@@ -11309,10 +11309,10 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,16 +11379,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>156.9620032779641</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>167.1813723584841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -11458,16 +11458,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M46" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N46" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O46" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P46" t="n">
         <v>135.0065633140411</v>
@@ -22598,19 +22598,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>200.5294970799005</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>225.7253617132057</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>302.1319672755041</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>344.1108094838382</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22671,16 +22671,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>74.5375429580123</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>146.062879909207</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>174.5444375001908</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>203.375029596744</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22717,19 +22717,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.6941187001108</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6068813128088</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>129.8301837326275</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>67.73888892204195</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22805,7 +22805,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,19 +22826,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>124.2488267465189</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>183.3997783916145</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>197.4755583695005</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>250.719288992763</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22872,19 +22872,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>123.2494512354109</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>111.7232259685798</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>86.61515304186563</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>63.77634165678425</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22981,19 +22981,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>60.54175205706355</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>151.6731001825387</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>198.3963068423414</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>208.1006776791572</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23027,22 +23027,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>356.3100788776309</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>381.2557545470806</v>
       </c>
       <c r="G8" t="n">
-        <v>414.6763736000615</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>313.8545109211363</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>184.8555983757751</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,7 +23066,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>124.2488267465189</v>
+        <v>137.2934646714637</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23087,7 +23087,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>360.6176474614227</v>
       </c>
     </row>
     <row r="9">
@@ -23191,7 +23191,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.6941187001108</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>136.6068813128088</v>
@@ -23245,7 +23245,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>218.2877926937468</v>
       </c>
     </row>
     <row r="11">
@@ -23267,13 +23267,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>384.3096932574806</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>313.8545109211363</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23303,13 +23303,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>124.2488267465189</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>183.3997783916145</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>197.4755583695005</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23321,7 +23321,7 @@
         <v>323.6206775227822</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>347.1647481942382</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23346,16 +23346,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>122.502859909153</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>111.7232259685798</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>86.61515304186563</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>63.77634165678425</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23385,19 +23385,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>146.062879909207</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>174.5444375001908</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>200.321090886344</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>229.1286306766888</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23504,16 +23504,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>381.2557545470806</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>389.6824463205042</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>313.8545109211363</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>187.9095370861751</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23540,16 +23540,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>124.2488267465189</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>183.3997783916145</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>197.4755583695005</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>228.7793004236057</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23665,19 +23665,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>167.6941187001108</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>67.73888892204195</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,19 +23692,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>60.54175205706355</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>151.6731001825387</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>198.3963068423414</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>208.1006776791572</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23774,22 +23774,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S17" t="n">
-        <v>174.1545907582562</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T17" t="n">
-        <v>183.5119726022908</v>
+        <v>208.7852545293897</v>
       </c>
       <c r="U17" t="n">
-        <v>211.7617759459959</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V17" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23832,7 +23832,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,16 +23856,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>66.03894665091181</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S18" t="n">
-        <v>132.0992941419972</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T18" t="n">
-        <v>160.580851732981</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U18" t="n">
-        <v>186.3575051191342</v>
+        <v>201.6400878316884</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23929,34 +23929,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>63.71328389118497</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>216.7604864108145</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>246.7351523946503</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>246.9391213747504</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>198.119630128721</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>190.9946280917787</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24020,7 +24020,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>329.5130333308493</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24051,7 +24051,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24063,13 +24063,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,16 +24093,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>100.9443125299447</v>
+        <v>29.90516995170168</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24114,7 +24114,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24169,7 +24169,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
@@ -24178,7 +24178,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>180.9206650946078</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24206,7 +24206,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24218,16 +24218,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>194.4189411335972</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>199.2828334142263</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24254,10 +24254,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24297,7 +24297,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>133.2212371231796</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24330,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24345,13 +24345,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="25">
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S25" t="n">
-        <v>179.7131144384051</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24485,22 +24485,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V26" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24519,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>160.3836946100335</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24534,7 +24534,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24661,13 +24661,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,7 +24686,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24698,7 +24698,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>8.181203141508671</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X29" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24759,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24771,10 +24771,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>88.20205575875427</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>47.89739788443217</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24813,7 +24813,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24822,7 +24822,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24892,7 +24892,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="32">
@@ -24917,22 +24917,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>149.8788940879793</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>194.5906600982693</v>
+        <v>191.4820480586832</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>199.9087398321068</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>309.6155861122504</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,10 +24959,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24996,19 +24996,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>83.07268391783256</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25041,25 +25041,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>12.10027351198386</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>10.54738439794659</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25123,7 +25123,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25132,7 +25132,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25196,31 +25196,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>36.99358752268202</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>35.95165522480826</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>154.3371029954408</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25233,7 +25233,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25242,19 +25242,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>47.04235492023683</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,22 +25281,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>10.54738439794659</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>133.3584431981915</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25366,7 +25366,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>167.3398439804523</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25442,22 +25442,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>33.37681640492011</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>35.95165522480826</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>112.3582607871067</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,13 +25470,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>68.73433766037593</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25524,16 +25524,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>10.54738439794659</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>100.9825172087029</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25591,7 +25591,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>180.9206650946078</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,16 +25625,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>169.3095780461377</v>
       </c>
       <c r="C41" t="n">
-        <v>138.2221886605583</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>166.6989502265273</v>
       </c>
       <c r="E41" t="n">
-        <v>181.9441107725781</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25682,7 +25682,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>24.2949497973872</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25691,10 +25691,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>156.3068370611261</v>
       </c>
       <c r="Y41" t="n">
-        <v>159.1872355456043</v>
+        <v>172.8136750387107</v>
       </c>
     </row>
     <row r="42">
@@ -25707,28 +25707,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>81.45167434808783</v>
+        <v>116.7766269048949</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25767,13 +25767,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>38.27071954357669</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25834,13 +25834,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>357.1135504688498</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25919,16 +25919,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>238.7699996381505</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>302.1319672755041</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>344.1108094838382</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25998,16 +25998,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>203.375029596744</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>207.1802959547944</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>226.0746919662888</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>180.1526940088467</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26062,16 +26062,16 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.31713150257008</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>151.6731001825387</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>198.3963068423414</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>192.964362157464</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>350042.4272852982</v>
+        <v>327897.5868709115</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>350042.4272852982</v>
+        <v>327897.5868709115</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>350042.4272852983</v>
+        <v>350042.4272852982</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>350042.4272852982</v>
+        <v>350042.4272852983</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>361200.6195754413</v>
+        <v>351677.1370990192</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>506849.5961656357</v>
+        <v>506849.596165636</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>506849.596165636</v>
+        <v>506849.5961656359</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>506849.596165636</v>
+        <v>488345.0034906006</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>506849.596165636</v>
+        <v>488345.0034906007</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>506849.5961656357</v>
+        <v>488345.0034906006</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>496764.2124772848</v>
+        <v>486922.337124838</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>350042.4272852983</v>
+        <v>327897.5868709115</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57382.7965172097</v>
+        <v>53753.70276572321</v>
       </c>
       <c r="C2" t="n">
-        <v>57382.79651720971</v>
+        <v>53753.7027657232</v>
       </c>
       <c r="D2" t="n">
-        <v>57382.7965172097</v>
+        <v>57382.79651720968</v>
       </c>
       <c r="E2" t="n">
-        <v>57382.7965172097</v>
+        <v>57382.79651720969</v>
       </c>
       <c r="F2" t="n">
         <v>57382.7965172097</v>
       </c>
       <c r="G2" t="n">
-        <v>59211.399711466</v>
+        <v>57650.69256249411</v>
       </c>
       <c r="H2" t="n">
+        <v>83080.33626566616</v>
+      </c>
+      <c r="I2" t="n">
+        <v>83080.33626566618</v>
+      </c>
+      <c r="J2" t="n">
+        <v>83080.33626566621</v>
+      </c>
+      <c r="K2" t="n">
         <v>83080.33626566619</v>
       </c>
-      <c r="I2" t="n">
-        <v>83080.33626566619</v>
-      </c>
-      <c r="J2" t="n">
-        <v>83080.33626566615</v>
-      </c>
-      <c r="K2" t="n">
-        <v>83080.33626566618</v>
-      </c>
       <c r="L2" t="n">
-        <v>83080.33626566624</v>
+        <v>80047.80587058846</v>
       </c>
       <c r="M2" t="n">
-        <v>83080.33626566619</v>
+        <v>80047.80587058848</v>
       </c>
       <c r="N2" t="n">
-        <v>83080.33626566621</v>
+        <v>80047.80587058846</v>
       </c>
       <c r="O2" t="n">
-        <v>81427.54481448189</v>
+        <v>79814.65947974406</v>
       </c>
       <c r="P2" t="n">
-        <v>57382.7965172097</v>
+        <v>53753.7027657232</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8585.948846018267</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7958.431053788175</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,16 +26378,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3827.209405005687</v>
+        <v>539.8745613933579</v>
       </c>
       <c r="H3" t="n">
-        <v>54347.73800859507</v>
+        <v>57583.78714233168</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6703.395469327987</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4511.004316546619</v>
+        <v>5375.370276572321</v>
       </c>
       <c r="C4" t="n">
-        <v>4511.00431654662</v>
+        <v>5375.370276572321</v>
       </c>
       <c r="D4" t="n">
-        <v>4511.00431654662</v>
+        <v>5767.86485636782</v>
       </c>
       <c r="E4" t="n">
-        <v>4511.00431654662</v>
+        <v>5767.86485636782</v>
       </c>
       <c r="F4" t="n">
-        <v>4511.00431654662</v>
+        <v>5767.864856367819</v>
       </c>
       <c r="G4" t="n">
-        <v>4667.958957620807</v>
+        <v>5796.838410903221</v>
       </c>
       <c r="H4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="I4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="J4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="L4" t="n">
-        <v>6716.703256796494</v>
+        <v>8219.136146499588</v>
       </c>
       <c r="M4" t="n">
-        <v>6716.703256796494</v>
+        <v>8219.136146499588</v>
       </c>
       <c r="N4" t="n">
-        <v>6716.703256796494</v>
+        <v>8219.136146499586</v>
       </c>
       <c r="O4" t="n">
-        <v>6574.839078823959</v>
+        <v>8193.920844561513</v>
       </c>
       <c r="P4" t="n">
-        <v>4511.004316546619</v>
+        <v>5375.370276572321</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35185.31370463355</v>
+        <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>35185.31370463355</v>
+        <v>33627.6</v>
       </c>
       <c r="D5" t="n">
         <v>35185.31370463355</v>
@@ -26482,7 +26482,7 @@
         <v>1557.713704633554</v>
       </c>
       <c r="G5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26497,19 +26497,19 @@
         <v>14653.66876376167</v>
       </c>
       <c r="L5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="M5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="N5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="O5" t="n">
-        <v>13804.68274911532</v>
+        <v>12976.19522793445</v>
       </c>
       <c r="P5" t="n">
-        <v>1557.713704633554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9100.529650011253</v>
+        <v>14750.73248915089</v>
       </c>
       <c r="C6" t="n">
-        <v>17686.47849602954</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="D6" t="n">
-        <v>17686.47849602953</v>
+        <v>8471.18690242013</v>
       </c>
       <c r="E6" t="n">
-        <v>51314.07849602953</v>
+        <v>50057.21795620831</v>
       </c>
       <c r="F6" t="n">
-        <v>51314.07849602953</v>
+        <v>50057.21795620833</v>
       </c>
       <c r="G6" t="n">
-        <v>48309.5316295596</v>
+        <v>49636.50605437031</v>
       </c>
       <c r="H6" t="n">
-        <v>7362.226236512957</v>
+        <v>2295.769290230404</v>
       </c>
       <c r="I6" t="n">
-        <v>61709.96424510803</v>
+        <v>59879.55643256211</v>
       </c>
       <c r="J6" t="n">
-        <v>55006.56877578</v>
+        <v>59879.55643256214</v>
       </c>
       <c r="K6" t="n">
-        <v>61709.96424510801</v>
+        <v>59879.55643256212</v>
       </c>
       <c r="L6" t="n">
-        <v>61709.96424510807</v>
+        <v>58732.71466496076</v>
       </c>
       <c r="M6" t="n">
-        <v>61709.96424510803</v>
+        <v>58732.71466496077</v>
       </c>
       <c r="N6" t="n">
-        <v>61709.96424510804</v>
+        <v>58732.71466496076</v>
       </c>
       <c r="O6" t="n">
-        <v>61048.02298654262</v>
+        <v>58644.54340724811</v>
       </c>
       <c r="P6" t="n">
-        <v>51314.07849602952</v>
+        <v>48378.33248915088</v>
       </c>
     </row>
   </sheetData>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>25.62029119463083</v>
@@ -26802,7 +26802,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="G4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26817,19 +26817,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O4" t="n">
-        <v>227.0507031104493</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="P4" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27009,14 +27009,14 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
@@ -27024,16 +27024,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>13.96358576720976</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H4" t="n">
-        <v>201.4304119158185</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,14 +27255,14 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
@@ -27270,10 +27270,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>13.96358576720976</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P4" t="n">
-        <v>201.4304119158185</v>
+        <v>213.4242636173429</v>
       </c>
     </row>
   </sheetData>
@@ -34705,16 +34705,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,19 +34778,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34936,13 +34936,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,7 +34951,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35097,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>24.58512791403969</v>
-      </c>
-      <c r="L8" t="n">
-        <v>25.62029119463083</v>
       </c>
       <c r="M8" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,13 +35261,13 @@
         <v>25.62029119463083</v>
       </c>
       <c r="N9" t="n">
-        <v>24.58512791403969</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>25.62029119463083</v>
@@ -35343,7 +35343,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="O10" t="n">
-        <v>24.58512791403967</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35410,19 +35410,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="L11" t="n">
+      <c r="O11" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>24.58512791403969</v>
       </c>
       <c r="P11" t="n">
         <v>25.62029119463083</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L12" t="n">
         <v>25.62029119463083</v>
@@ -35501,7 +35501,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="O12" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>25.62029119463083</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L14" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="M14" t="n">
-        <v>24.58512791403969</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="L15" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>24.58512791403969</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>25.62029119463083</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>37.98452839772582</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M18" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N18" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="Q18" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,10 +36048,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M19" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N19" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O19" t="n">
         <v>24.58512791403967</v>
@@ -36203,19 +36203,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
       <c r="O27" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,16 +36914,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37075,7 +37075,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>208.2870111838408</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37084,7 +37084,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37151,16 +37151,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>91.0829537758999</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>40.87753466722953</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37312,16 +37312,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410586</v>
+        <v>143.5949833418711</v>
       </c>
       <c r="P35" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37388,16 +37388,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>46.78797658628819</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>22.2028486722484</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37543,13 +37543,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>104.0555615261842</v>
+        <v>6.382862610783645</v>
       </c>
       <c r="L38" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M39" t="n">
-        <v>217.7067518141195</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>110.973048317057</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>91.118958044716</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37795,7 +37795,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>35.27555463089784</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>227.0507031104493</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="M42" t="n">
-        <v>227.0507031104493</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="N42" t="n">
-        <v>227.0507031104493</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>21.15762564016167</v>
+        <v>163.6414497888537</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38017,10 +38017,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38029,10 +38029,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,16 +38099,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38178,16 +38178,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
